--- a/HOJA DE COSTOS. PROYECTxlsx.xlsx
+++ b/HOJA DE COSTOS. PROYECTxlsx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -931,7 +931,7 @@
   <dimension ref="B2:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
